--- a/data/trans_dic/Cage-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Cage-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/Cage-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Cage-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_dic/Cage-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Cage-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
